--- a/biology/Botanique/Allophylus/Allophylus.xlsx
+++ b/biology/Botanique/Allophylus/Allophylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allophylus est un genre d'arbres et d'arbustes de la famille des Sapindaceae. Il comprend environ 200 espèces réparties dans les régions tropicales et subtropicales.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (3 octobre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (3 octobre 2017) :
 Allophylus abyssinicus (Hochst.) Radk.
 Allophylus acutatus Radlk.
 Allophylus africanus Beauv.
@@ -698,7 +712,7 @@
 Allophylus whitei Exell
 Allophylus zenkeri Gilg ex Radlk.
 Allophylus zeylanicus L.
-Selon ITIS      (3 octobre 2017)[3] :
+Selon ITIS      (3 octobre 2017) :
 Allophylus cobbe (L.) Raeusch.
 Allophylus crassinervis Radlk.
 Allophylus holophyllus Radlk.
@@ -706,7 +720,7 @@
 Allophylus ternatus (J.R. Forst. &amp; G. Forst.) Radlk.
 Allophylus timorensis (DC.) Blume
 Allophylus zeylanicus L.
-Selon NCBI  (3 octobre 2017)[4] :
+Selon NCBI  (3 octobre 2017) :
 Allophylus abyssinicus
 Allophylus africanus
 Allophylus angustatus
@@ -745,7 +759,7 @@
 Allophylus spicatus
 Allophylus trichodesmus
 Allophylus welwitschii
-Selon The Plant List            (3 octobre 2017)[5] :
+Selon The Plant List            (3 octobre 2017) :
 Allophylus abyssinicus (Hochst.) Radlk.
 Allophylus acutatus Radlk.
 Allophylus africanus P.Beauv.
@@ -958,7 +972,7 @@
 Allophylus whitei Exell
 Allophylus zenkeri Gilg ex Radlk.
 Allophylus zeylanicus L.
-Selon Tropicos                                           (3 octobre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (3 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Allophylus abyssinicus (Hochst.) Radlk.
 Allophylus acuminatus Radlk.
 Allophylus acutatus Radlk.
